--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210"/>
+    <workbookView windowWidth="23760" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>证券</t>
   </si>
   <si>
     <t>六</t>
@@ -80,12 +83,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,9 +98,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,15 +118,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +149,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -145,7 +188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,26 +202,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,38 +227,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,14 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -266,7 +262,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,31 +358,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,31 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,119 +442,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,26 +501,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +547,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,196 +611,194 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,69 +1149,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="10" max="10" width="12.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="12.0916666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1">
         <v>43435</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5">
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1179,109 +1226,116 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5">
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5">
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5">
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1291,13 +1345,14 @@
       <c r="H10" s="6"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1307,13 +1362,14 @@
       <c r="H11" s="6"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="6">
         <v>-34.35</v>
@@ -1332,81 +1388,100 @@
         <v>-61.85</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
+        <v>18</v>
+      </c>
+      <c r="K12" s="12">
+        <v>22362.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-36.59</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>-11</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="8">
+        <f>SUM(C13:H13)</f>
+        <v>-47.59</v>
+      </c>
       <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
@@ -1418,9 +1493,10 @@
       <c r="H18" s="6"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="8"/>
@@ -1432,9 +1508,10 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5">
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="8"/>
@@ -1446,9 +1523,10 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="8"/>
@@ -1460,9 +1538,10 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="5">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="8"/>
@@ -1474,9 +1553,10 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
@@ -1488,9 +1568,10 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="8"/>
@@ -1502,9 +1583,10 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="5">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="8"/>
@@ -1516,9 +1598,10 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="8"/>
@@ -1530,9 +1613,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="5">
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="8"/>
@@ -1544,9 +1628,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="8"/>
@@ -1558,9 +1643,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5">
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="8"/>
@@ -1572,9 +1658,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="5">
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="8"/>
@@ -1586,9 +1673,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5">
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="8"/>
@@ -1600,9 +1688,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="5">
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
@@ -1614,8 +1703,9 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1628,8 +1718,9 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -1642,10 +1733,11 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1656,10 +1748,11 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
+      <c r="K35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1676,7 +1769,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1693,7 +1786,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23760" windowHeight="12465"/>
+    <workbookView windowWidth="19200" windowHeight="7210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -79,6 +79,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其他：支付宝安全险；</t>
     </r>
     <r>
@@ -93,6 +100,12 @@
     </r>
   </si>
   <si>
+    <t>其他：麻将</t>
+  </si>
+  <si>
+    <t>其他：彩票</t>
+  </si>
+  <si>
     <t>周末合计</t>
   </si>
 </sst>
@@ -101,15 +114,143 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -123,103 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -228,37 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -299,181 +312,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,56 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -628,6 +591,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -650,145 +663,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,13 +1214,13 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="11" max="11" width="17.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375"/>
+    <col min="11" max="11" width="17.2545454545455" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.37272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1482,7 +1495,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" ht="27" spans="1:12">
+    <row r="14" ht="28" spans="1:12">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1551,32 +1564,52 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="17"/>
+      <c r="I16" s="8">
+        <v>-68</v>
+      </c>
+      <c r="J16" s="10">
+        <f>SUM(C16:I16)</f>
+        <v>-88.27</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-32.8</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="17"/>
+      <c r="I17" s="8">
+        <v>-26.94</v>
+      </c>
+      <c r="J17" s="10">
+        <f>SUM(C17:I17)</f>
+        <v>-59.74</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1846,7 +1879,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1879,7 +1912,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1896,7 +1929,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210"/>
+    <workbookView windowWidth="23835" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -91,7 +91,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -104,6 +104,53 @@
   </si>
   <si>
     <t>其他：彩票</t>
+  </si>
+  <si>
+    <t>周合计：-379.02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理发</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购物：坚果、吹风机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和彩票</t>
+    </r>
   </si>
   <si>
     <t>周末合计</t>
@@ -115,11 +162,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +176,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +229,69 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,83 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,40 +319,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,11 +612,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,24 +644,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +670,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -655,6 +700,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,137 +729,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +893,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,6 +918,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -916,6 +976,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1214,13 +1279,13 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="11" width="17.2545454545455" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.37272727272727"/>
+    <col min="11" max="11" width="17.2583333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1236,8 +1301,8 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
@@ -1267,13 +1332,13 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1292,7 +1357,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
@@ -1310,7 +1375,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="17"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12">
@@ -1328,7 +1393,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12">
@@ -1346,7 +1411,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12">
@@ -1364,7 +1429,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12">
@@ -1382,7 +1447,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12">
@@ -1400,7 +1465,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12">
@@ -1418,7 +1483,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
@@ -1436,7 +1501,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12">
@@ -1460,10 +1525,10 @@
         <v>-18</v>
       </c>
       <c r="J12" s="10">
-        <f>SUM(C12:I12)</f>
+        <f t="shared" ref="J12:J23" si="0">SUM(C12:I12)</f>
         <v>-61.85</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="9">
@@ -1489,13 +1554,13 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="10">
-        <f>SUM(C13:I13)</f>
+        <f t="shared" si="0"/>
         <v>-47.59</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" ht="28" spans="1:12">
+    <row r="14" ht="27" spans="1:12">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1518,10 +1583,10 @@
         <v>-1.8</v>
       </c>
       <c r="J14" s="10">
-        <f>SUM(C14:I14)</f>
+        <f t="shared" si="0"/>
         <v>-39.47</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="9"/>
@@ -1543,10 +1608,10 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="10">
-        <f>SUM(C15:I15)</f>
+        <f t="shared" si="0"/>
         <v>-34.1</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12">
@@ -1568,10 +1633,10 @@
         <v>-68</v>
       </c>
       <c r="J16" s="10">
-        <f>SUM(C16:I16)</f>
+        <f t="shared" si="0"/>
         <v>-88.27</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="9"/>
@@ -1595,10 +1660,10 @@
         <v>-26.94</v>
       </c>
       <c r="J17" s="10">
-        <f>SUM(C17:I17)</f>
+        <f t="shared" si="0"/>
         <v>-59.74</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="9"/>
@@ -1610,95 +1675,157 @@
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8">
+        <v>-48</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>-48</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-38.6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>-7.7</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="17"/>
+      <c r="I19" s="11">
+        <v>-198</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="0"/>
+        <v>-244.3</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10">
+        <v>-37.34</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="17"/>
+      <c r="I20" s="10">
+        <v>-10</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="0"/>
+        <v>-47.34</v>
+      </c>
+      <c r="K20" s="18"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-41.07</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="10">
+        <f t="shared" si="0"/>
+        <v>-41.07</v>
+      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-37.02</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-7.7</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-3</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>-47.72</v>
+      </c>
+      <c r="K22" s="18"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" ht="27" spans="1:12">
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-30.6</v>
+      </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10">
+        <v>-3</v>
+      </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="11">
+        <v>-168</v>
+      </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="17"/>
+      <c r="I23" s="10">
+        <v>-27</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="0"/>
+        <v>-228.6</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
@@ -1714,7 +1841,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="17"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
@@ -1730,7 +1857,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12">
@@ -1746,7 +1873,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="17"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12">
@@ -1762,7 +1889,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12">
@@ -1778,7 +1905,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12">
@@ -1794,7 +1921,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12">
@@ -1810,7 +1937,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12">
@@ -1826,7 +1953,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12">
@@ -1842,7 +1969,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12">
@@ -1858,7 +1985,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="17"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12">
@@ -1874,12 +2001,12 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="16"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1890,7 +2017,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="16"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="9"/>
     </row>
   </sheetData>
@@ -1912,7 +2039,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1929,7 +2056,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23835" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -57,13 +57,13 @@
     <t>六</t>
   </si>
   <si>
+    <t>二</t>
+  </si>
+  <si>
     <t>日</t>
   </si>
   <si>
     <t>一</t>
-  </si>
-  <si>
-    <t>二</t>
   </si>
   <si>
     <t>三</t>
@@ -153,7 +153,10 @@
     </r>
   </si>
   <si>
-    <t>周末合计</t>
+    <t>其他：麻将和网费</t>
+  </si>
+  <si>
+    <t>周合计：-940.64</t>
   </si>
 </sst>
 </file>
@@ -161,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -189,6 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -196,9 +207,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +269,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -221,14 +277,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,69 +314,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -320,20 +330,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,37 +363,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,145 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +621,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,35 +692,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,26 +708,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,137 +738,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,12 +899,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,10 +935,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,19 +1312,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="11" width="17.2583333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.375"/>
+    <col min="25" max="25" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:25">
       <c r="A1" s="2">
         <v>43435</v>
       </c>
@@ -1301,10 +1338,24 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="N1" s="2">
+        <v>43466</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="16"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1332,17 +1383,53 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1357,15 +1444,33 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="17"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="9">
+        <v>23532.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1374,16 +1479,30 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4" s="8">
+        <v>2</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1392,16 +1511,30 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1410,11 +1543,25 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="8">
+        <v>4</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1428,11 +1575,25 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1446,11 +1607,25 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" s="8">
+        <v>6</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1464,11 +1639,25 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" s="8">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1482,16 +1671,30 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="18"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10" s="8">
+        <v>8</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1500,16 +1703,30 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="N11" s="8">
+        <v>9</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="8">
         <v>-34.35</v>
@@ -1524,23 +1741,37 @@
       <c r="I12" s="8">
         <v>-18</v>
       </c>
-      <c r="J12" s="10">
-        <f t="shared" ref="J12:J23" si="0">SUM(C12:I12)</f>
+      <c r="J12" s="11">
+        <f t="shared" ref="J12:J26" si="0">SUM(C12:I12)</f>
         <v>-61.85</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="22">
         <v>22362.44</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12" s="8">
+        <v>10</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="22"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8">
         <v>-36.59</v>
@@ -1553,14 +1784,28 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="10">
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
         <v>-47.59</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" ht="27" spans="1:12">
+      <c r="N13" s="8">
+        <v>11</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="14" ht="27" spans="1:25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1576,22 +1821,36 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <v>20</v>
       </c>
       <c r="I14" s="8">
         <v>-1.8</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
         <v>-39.47</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14" s="8">
+        <v>12</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1607,14 +1866,28 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="10">
+      <c r="J15" s="11">
         <f t="shared" si="0"/>
         <v>-34.1</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15" s="8">
+        <v>13</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="9"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1632,16 +1905,30 @@
       <c r="I16" s="8">
         <v>-68</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="11">
         <f t="shared" si="0"/>
         <v>-88.27</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16" s="8">
+        <v>14</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="9"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1659,21 +1946,35 @@
       <c r="I17" s="8">
         <v>-26.94</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="11">
         <f t="shared" si="0"/>
         <v>-59.74</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17" s="8">
+        <v>15</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="8">
         <v>-48</v>
@@ -1684,345 +1985,645 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="10">
+      <c r="J18" s="11">
         <f t="shared" si="0"/>
         <v>-48</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="N18" s="8">
+        <v>16</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11">
         <v>-38.6</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>-7.7</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12">
         <v>-198</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="11">
         <f t="shared" si="0"/>
         <v>-244.3</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="N19" s="8">
+        <v>17</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="11">
         <v>-37.34</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11">
         <v>-10</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="11">
         <f t="shared" si="0"/>
         <v>-47.34</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="N20" s="8">
+        <v>18</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="9"/>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <v>-41.07</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
         <f t="shared" si="0"/>
         <v>-41.07</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="N21" s="8">
+        <v>19</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="9"/>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="11">
         <v>-37.02</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>-7.7</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>-3</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
         <f t="shared" si="0"/>
         <v>-47.72</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="9"/>
-    </row>
-    <row r="23" ht="27" spans="1:12">
+      <c r="N22" s="8">
+        <v>20</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="9"/>
+    </row>
+    <row r="23" ht="27" spans="1:25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <v>-30.6</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
         <v>-3</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11">
+      <c r="F23" s="11"/>
+      <c r="G23" s="12">
         <v>-168</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11">
         <v>-27</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="11">
         <f t="shared" si="0"/>
         <v>-228.6</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="25" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="N23" s="8">
+        <v>21</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="9"/>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>-16.2</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
+        <v>-13</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12">
+        <v>-260</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
+        <v>-289.2</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="N24" s="8">
+        <v>22</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="9"/>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="11">
+        <v>-42.41</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>-42.41</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="N25" s="8">
+        <v>23</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="9"/>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11">
+        <v>-34.6</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11">
+        <v>-11</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11">
+        <f t="shared" si="0"/>
+        <v>-45.6</v>
+      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="N26" s="8">
+        <v>24</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="9"/>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="18"/>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="11">
+        <v>-35.3</v>
+      </c>
+      <c r="D27" s="11">
+        <v>-7.5</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11">
+        <f>SUM(C27:I27)</f>
+        <v>-42.8</v>
+      </c>
+      <c r="K27" s="21"/>
       <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="N27" s="8">
+        <v>25</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="9"/>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="18"/>
+      <c r="B28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11">
+        <v>-33.7</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
+        <f>SUM(C28:I28)</f>
+        <v>-33.7</v>
+      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="N28" s="8">
+        <v>26</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="9"/>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="18"/>
+      <c r="B29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="11">
+        <v>-33.7</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11">
+        <v>-11</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10">
+        <v>20</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
+        <f>SUM(C29:I29)</f>
+        <v>-24.7</v>
+      </c>
+      <c r="K29" s="21"/>
       <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="N29" s="8">
+        <v>27</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="9"/>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="18"/>
+      <c r="B30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11">
+        <v>-30.6</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
+        <v>-10</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11">
+        <f>SUM(C30:I30)</f>
+        <v>-40.6</v>
+      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="N30" s="8">
+        <v>28</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="9"/>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="18"/>
+      <c r="B31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
+        <v>-16</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="N31" s="8">
+        <v>29</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="9"/>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="18"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="10">
+      <c r="N32" s="8">
+        <v>30</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="9"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22">
+        <v>23532.93</v>
+      </c>
+      <c r="N33" s="11">
+        <v>31</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="22"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="9"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="27">
+        <v>1170.5</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="O34:V34"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>KTV</t>
+  </si>
+  <si>
+    <t>书籍</t>
+  </si>
+  <si>
+    <t>电费</t>
   </si>
   <si>
     <t>其他：医药</t>
@@ -194,6 +200,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -209,6 +230,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,7 +244,61 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -233,59 +315,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -301,30 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +390,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,175 +546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,15 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -687,37 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,22 +717,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -768,10 +774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,133 +786,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1387,7 +1393,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1536,7 +1542,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8">
-        <f>SUM(P3:V3)</f>
+        <f t="shared" ref="W3:W8" si="0">SUM(P3:V3)</f>
         <v>-30</v>
       </c>
       <c r="X3" s="22"/>
@@ -1582,7 +1588,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="10">
-        <f>SUM(P4:V4)</f>
+        <f t="shared" si="0"/>
         <v>-245.1</v>
       </c>
       <c r="X4" s="23"/>
@@ -1620,7 +1626,10 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="10"/>
+      <c r="W5" s="10">
+        <f t="shared" si="0"/>
+        <v>-35.1</v>
+      </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="8"/>
     </row>
@@ -1655,10 +1664,13 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="34">
+      <c r="V6" s="33">
         <v>-622</v>
       </c>
-      <c r="W6" s="10"/>
+      <c r="W6" s="10">
+        <f t="shared" si="0"/>
+        <v>-638.2</v>
+      </c>
       <c r="X6" s="23" t="s">
         <v>19</v>
       </c>
@@ -1688,7 +1700,7 @@
         <v>12</v>
       </c>
       <c r="P7" s="7">
-        <v>-10.2</v>
+        <v>-31.9</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1696,7 +1708,10 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="10">
+        <f t="shared" si="0"/>
+        <v>-31.9</v>
+      </c>
       <c r="X7" s="23"/>
       <c r="Y7" s="8"/>
     </row>
@@ -1720,16 +1735,31 @@
       <c r="N8" s="7">
         <v>6</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="7">
+        <v>-42</v>
+      </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="7">
+        <v>-2</v>
+      </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="T8" s="33">
+        <v>-123.3</v>
+      </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="23"/>
+      <c r="V8" s="7">
+        <v>-27</v>
+      </c>
+      <c r="W8" s="10">
+        <f t="shared" si="0"/>
+        <v>-194.3</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:25">
@@ -1752,15 +1782,22 @@
       <c r="N9" s="7">
         <v>7</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="7">
+        <v>-29.5</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="10"/>
+      <c r="W9" s="10">
+        <f>SUM(P9:V9)</f>
+        <v>-29.5</v>
+      </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="8"/>
     </row>
@@ -1784,15 +1821,22 @@
       <c r="N10" s="7">
         <v>8</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="7">
+        <v>-30.6</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="T10" s="33"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="10">
+        <f>SUM(P10:V10)</f>
+        <v>-30.6</v>
+      </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="8"/>
     </row>
@@ -1816,16 +1860,29 @@
       <c r="N11" s="7">
         <v>9</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="7">
+        <v>-37.5</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="T11" s="7">
+        <v>-21</v>
+      </c>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="23"/>
+      <c r="V11" s="34">
+        <v>-158</v>
+      </c>
+      <c r="W11" s="10">
+        <f>SUM(P11:V11)</f>
+        <v>-216.5</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:25">
@@ -1849,11 +1906,11 @@
         <v>-18</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" ref="J12:J33" si="0">SUM(C12:I12)</f>
+        <f t="shared" ref="J12:J33" si="1">SUM(C12:I12)</f>
         <v>-61.85</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="24">
         <v>22362.44</v>
@@ -1861,15 +1918,22 @@
       <c r="N12" s="7">
         <v>10</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7">
+        <v>-30</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="10">
+        <f>SUM(P12:V12)</f>
+        <v>-30</v>
+      </c>
       <c r="X12" s="23"/>
       <c r="Y12" s="24"/>
     </row>
@@ -1892,7 +1956,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-47.59</v>
       </c>
       <c r="K13" s="23"/>
@@ -1900,15 +1964,22 @@
       <c r="N13" s="7">
         <v>11</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="7">
+        <v>-33</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="10"/>
+      <c r="W13" s="10">
+        <f>SUM(P13:V13)</f>
+        <v>-33</v>
+      </c>
       <c r="X13" s="23"/>
       <c r="Y13" s="8"/>
     </row>
@@ -1935,11 +2006,11 @@
         <v>-1.8</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-39.47</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L14" s="8"/>
       <c r="N14" s="7">
@@ -1974,7 +2045,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-34.1</v>
       </c>
       <c r="K15" s="23"/>
@@ -2013,11 +2084,11 @@
         <v>-68</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-88.27</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" s="8"/>
       <c r="N16" s="7">
@@ -2054,11 +2125,11 @@
         <v>-26.94</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-59.74</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L17" s="8"/>
       <c r="N17" s="7">
@@ -2093,11 +2164,11 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L18" s="8"/>
       <c r="N18" s="7">
@@ -2136,11 +2207,11 @@
         <v>-198</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-244.3</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L19" s="8"/>
       <c r="N19" s="7">
@@ -2177,7 +2248,7 @@
         <v>-10</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-47.34</v>
       </c>
       <c r="K20" s="23"/>
@@ -2214,7 +2285,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-41.07</v>
       </c>
       <c r="K21" s="23"/>
@@ -2255,7 +2326,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-47.72</v>
       </c>
       <c r="K22" s="23"/>
@@ -2298,11 +2369,11 @@
         <v>-27</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-228.6</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L23" s="8"/>
       <c r="N23" s="7">
@@ -2341,11 +2412,11 @@
         <v>-260</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-289.2</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L24" s="8"/>
       <c r="N24" s="7">
@@ -2380,11 +2451,11 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-42.41</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L25" s="8"/>
       <c r="N25" s="7">
@@ -2421,7 +2492,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-45.6</v>
       </c>
       <c r="K26" s="23"/>
@@ -2460,7 +2531,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-42.8</v>
       </c>
       <c r="K27" s="23"/>
@@ -2497,7 +2568,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-33.7</v>
       </c>
       <c r="K28" s="23"/>
@@ -2538,7 +2609,7 @@
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-24.7</v>
       </c>
       <c r="K29" s="23"/>
@@ -2577,7 +2648,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-40.6</v>
       </c>
       <c r="K30" s="23"/>
@@ -2616,7 +2687,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-42</v>
       </c>
       <c r="K31" s="23"/>
@@ -2657,11 +2728,11 @@
         <v>-557</v>
       </c>
       <c r="J32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-612</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L32" s="8"/>
       <c r="N32" s="7">
@@ -2700,11 +2771,11 @@
         <v>-105</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-155</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L33" s="24">
         <v>23532.93</v>

--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -109,6 +109,12 @@
     </r>
   </si>
   <si>
+    <t>网费</t>
+  </si>
+  <si>
+    <t>鞋子和日用</t>
+  </si>
+  <si>
     <t>其他：麻将</t>
   </si>
   <si>
@@ -168,6 +174,12 @@
     <t>周合计：-940.64</t>
   </si>
   <si>
+    <t>日用</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
     <t>其他：麻将和酒吧</t>
   </si>
   <si>
@@ -179,12 +191,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,16 +212,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,20 +234,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,15 +241,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,21 +294,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -289,16 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -307,7 +311,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,10 +341,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,9 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,187 +408,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +688,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -680,6 +722,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,34 +751,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,21 +784,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -774,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,137 +804,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,10 +1038,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,7 +1414,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1432,7 +1453,7 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
       <c r="X1" s="31"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
@@ -1504,10 +1525,10 @@
       <c r="X2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="38"/>
+      <c r="Z2" s="39"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="7">
@@ -1542,11 +1563,11 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8">
-        <f t="shared" ref="W3:W8" si="0">SUM(P3:V3)</f>
+        <f t="shared" ref="W3:W15" si="0">SUM(P3:V3)</f>
         <v>-30</v>
       </c>
       <c r="X3" s="22"/>
-      <c r="Y3" s="39">
+      <c r="Y3" s="40">
         <v>23532.93</v>
       </c>
       <c r="Z3">
@@ -1795,7 +1816,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="10">
-        <f>SUM(P9:V9)</f>
+        <f t="shared" si="0"/>
         <v>-29.5</v>
       </c>
       <c r="X9" s="23"/>
@@ -1834,7 +1855,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="10">
-        <f>SUM(P10:V10)</f>
+        <f t="shared" si="0"/>
         <v>-30.6</v>
       </c>
       <c r="X10" s="23"/>
@@ -1873,11 +1894,11 @@
         <v>-21</v>
       </c>
       <c r="U11" s="7"/>
-      <c r="V11" s="34">
+      <c r="V11" s="33">
         <v>-158</v>
       </c>
       <c r="W11" s="10">
-        <f>SUM(P11:V11)</f>
+        <f t="shared" si="0"/>
         <v>-216.5</v>
       </c>
       <c r="X11" s="23" t="s">
@@ -1931,7 +1952,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
-        <f>SUM(P12:V12)</f>
+        <f t="shared" si="0"/>
         <v>-30</v>
       </c>
       <c r="X12" s="23"/>
@@ -1977,7 +1998,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="10">
-        <f>SUM(P13:V13)</f>
+        <f t="shared" si="0"/>
         <v>-33</v>
       </c>
       <c r="X13" s="23"/>
@@ -2016,19 +2037,30 @@
       <c r="N14" s="7">
         <v>12</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="7">
+        <v>-21</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="25"/>
+      <c r="V14" s="7">
+        <v>-80</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" si="0"/>
+        <v>-101</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" ht="27" spans="1:25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -2053,16 +2085,29 @@
       <c r="N15" s="7">
         <v>13</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="7">
+        <v>-38</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="33">
+        <v>-313</v>
+      </c>
       <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="23"/>
+      <c r="V15" s="7">
+        <v>-89</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="0"/>
+        <v>-440</v>
+      </c>
+      <c r="X15" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="1:25">
@@ -2088,21 +2133,28 @@
         <v>-88.27</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L16" s="8"/>
       <c r="N16" s="7">
         <v>14</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="7">
+        <v>-32</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="10"/>
+      <c r="W16" s="10">
+        <f>SUM(P16:V16)</f>
+        <v>-32</v>
+      </c>
       <c r="X16" s="23"/>
       <c r="Y16" s="8"/>
     </row>
@@ -2129,21 +2181,28 @@
         <v>-59.74</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L17" s="8"/>
       <c r="N17" s="7">
         <v>15</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="7">
+        <v>-32</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="10">
+        <f>SUM(P17:V17)</f>
+        <v>-32</v>
+      </c>
       <c r="X17" s="23"/>
       <c r="Y17" s="8"/>
     </row>
@@ -2168,22 +2227,29 @@
         <v>-48</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L18" s="8"/>
       <c r="N18" s="7">
         <v>16</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="O18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="7">
+        <v>-32</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="35"/>
+      <c r="W18" s="10">
+        <f>SUM(P18:V18)</f>
+        <v>-32</v>
+      </c>
+      <c r="X18" s="34"/>
       <c r="Y18" s="8"/>
     </row>
     <row r="19" spans="1:25">
@@ -2211,21 +2277,28 @@
         <v>-244.3</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L19" s="8"/>
       <c r="N19" s="7">
         <v>17</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="O19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="10">
+        <v>-32</v>
+      </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="10">
+        <f>SUM(P19:V19)</f>
+        <v>-32</v>
+      </c>
       <c r="X19" s="25"/>
       <c r="Y19" s="8"/>
     </row>
@@ -2256,15 +2329,22 @@
       <c r="N20" s="7">
         <v>18</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="O20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="10">
+        <v>-44</v>
+      </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="W20" s="10">
+        <f>SUM(P20:V20)</f>
+        <v>-44</v>
+      </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="8"/>
     </row>
@@ -2293,15 +2373,22 @@
       <c r="N21" s="7">
         <v>19</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="O21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="10">
+        <v>-32</v>
+      </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="W21" s="10">
+        <f>SUM(P21:V21)</f>
+        <v>-32</v>
+      </c>
       <c r="X21" s="23"/>
       <c r="Y21" s="8"/>
     </row>
@@ -2334,15 +2421,22 @@
       <c r="N22" s="7">
         <v>20</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="O22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="10">
+        <v>-40</v>
+      </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="10">
+        <f>SUM(P22:V22)</f>
+        <v>-40</v>
+      </c>
       <c r="X22" s="23"/>
       <c r="Y22" s="8"/>
     </row>
@@ -2373,21 +2467,28 @@
         <v>-228.6</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L23" s="8"/>
       <c r="N23" s="7">
         <v>21</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="O23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="10">
+        <v>-35</v>
+      </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="11"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="W23" s="10">
+        <f>SUM(P23:V23)</f>
+        <v>-35</v>
+      </c>
       <c r="X23" s="27"/>
       <c r="Y23" s="8"/>
     </row>
@@ -2416,21 +2517,28 @@
         <v>-289.2</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L24" s="8"/>
       <c r="N24" s="7">
         <v>22</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="10">
+        <v>-35</v>
+      </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="10">
+        <f>SUM(P24:V24)</f>
+        <v>-35</v>
+      </c>
       <c r="X24" s="23"/>
       <c r="Y24" s="8"/>
     </row>
@@ -2455,22 +2563,33 @@
         <v>-42.41</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L25" s="8"/>
       <c r="N25" s="7">
         <v>23</v>
       </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="O25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="10">
+        <v>-35</v>
+      </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
+      <c r="T25" s="10">
+        <v>-37</v>
+      </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="35"/>
+      <c r="W25" s="10">
+        <f>SUM(P25:V25)</f>
+        <v>-72</v>
+      </c>
+      <c r="X25" s="35" t="s">
+        <v>33</v>
+      </c>
       <c r="Y25" s="8"/>
     </row>
     <row r="26" spans="1:25">
@@ -2500,16 +2619,27 @@
       <c r="N26" s="7">
         <v>24</v>
       </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="10">
+        <v>-35</v>
+      </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
+      <c r="T26" s="36">
+        <v>-1000</v>
+      </c>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="23"/>
+      <c r="W26" s="36">
+        <f>SUM(P26:V26)</f>
+        <v>-1035</v>
+      </c>
+      <c r="X26" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="Y26" s="8"/>
     </row>
     <row r="27" spans="1:25">
@@ -2539,15 +2669,22 @@
       <c r="N27" s="7">
         <v>25</v>
       </c>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="10">
+        <v>-33</v>
+      </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="W27" s="10">
+        <f>SUM(P27:V27)</f>
+        <v>-33</v>
+      </c>
       <c r="X27" s="23"/>
       <c r="Y27" s="8"/>
     </row>
@@ -2576,7 +2713,9 @@
       <c r="N28" s="7">
         <v>26</v>
       </c>
-      <c r="O28" s="10"/>
+      <c r="O28" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2617,7 +2756,9 @@
       <c r="N29" s="7">
         <v>27</v>
       </c>
-      <c r="O29" s="10"/>
+      <c r="O29" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -2732,7 +2873,7 @@
         <v>-612</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L32" s="8"/>
       <c r="N32" s="7">
@@ -2775,7 +2916,7 @@
         <v>-155</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L33" s="24">
         <v>23532.93</v>

--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="23835" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>日期</t>
   </si>
@@ -180,10 +180,16 @@
     <t>饰品</t>
   </si>
   <si>
+    <t>份子钱</t>
+  </si>
+  <si>
     <t>其他：麻将和酒吧</t>
   </si>
   <si>
     <t>桌球</t>
+  </si>
+  <si>
+    <t>天猫精灵</t>
   </si>
 </sst>
 </file>
@@ -191,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -218,9 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,18 +238,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,7 +262,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,10 +314,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,10 +339,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,39 +354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,19 +414,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,43 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,97 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +694,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -705,8 +726,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,7 +771,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,41 +790,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -792,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,137 +810,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1051,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1413,8 +1422,8 @@
   <sheetPr/>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1453,7 +1462,7 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
       <c r="X1" s="31"/>
-      <c r="Y1" s="37"/>
+      <c r="Y1" s="38"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
@@ -1525,10 +1534,10 @@
       <c r="X2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="39"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="7">
@@ -1563,11 +1572,11 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8">
-        <f t="shared" ref="W3:W15" si="0">SUM(P3:V3)</f>
+        <f t="shared" ref="W3:W29" si="0">SUM(P3:V3)</f>
         <v>-30</v>
       </c>
       <c r="X3" s="22"/>
-      <c r="Y3" s="40">
+      <c r="Y3" s="41">
         <v>23532.93</v>
       </c>
       <c r="Z3">
@@ -2152,7 +2161,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="10">
-        <f>SUM(P16:V16)</f>
+        <f t="shared" si="0"/>
         <v>-32</v>
       </c>
       <c r="X16" s="23"/>
@@ -2200,7 +2209,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="10">
-        <f>SUM(P17:V17)</f>
+        <f t="shared" si="0"/>
         <v>-32</v>
       </c>
       <c r="X17" s="23"/>
@@ -2246,7 +2255,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="10">
-        <f>SUM(P18:V18)</f>
+        <f t="shared" si="0"/>
         <v>-32</v>
       </c>
       <c r="X18" s="34"/>
@@ -2296,7 +2305,7 @@
       <c r="U19" s="10"/>
       <c r="V19" s="11"/>
       <c r="W19" s="10">
-        <f>SUM(P19:V19)</f>
+        <f t="shared" si="0"/>
         <v>-32</v>
       </c>
       <c r="X19" s="25"/>
@@ -2342,7 +2351,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10">
-        <f>SUM(P20:V20)</f>
+        <f t="shared" si="0"/>
         <v>-44</v>
       </c>
       <c r="X20" s="23"/>
@@ -2386,7 +2395,7 @@
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10">
-        <f>SUM(P21:V21)</f>
+        <f t="shared" si="0"/>
         <v>-32</v>
       </c>
       <c r="X21" s="23"/>
@@ -2434,7 +2443,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
       <c r="W22" s="10">
-        <f>SUM(P22:V22)</f>
+        <f t="shared" si="0"/>
         <v>-40</v>
       </c>
       <c r="X22" s="23"/>
@@ -2486,7 +2495,7 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10">
-        <f>SUM(P23:V23)</f>
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
       <c r="X23" s="27"/>
@@ -2536,7 +2545,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="11"/>
       <c r="W24" s="10">
-        <f>SUM(P24:V24)</f>
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
       <c r="X24" s="23"/>
@@ -2584,7 +2593,7 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10">
-        <f>SUM(P25:V25)</f>
+        <f t="shared" si="0"/>
         <v>-72</v>
       </c>
       <c r="X25" s="35" t="s">
@@ -2628,13 +2637,13 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
-      <c r="T26" s="36">
+      <c r="T26" s="11">
         <v>-1000</v>
       </c>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="36">
-        <f>SUM(P26:V26)</f>
+      <c r="W26" s="11">
+        <f t="shared" si="0"/>
         <v>-1035</v>
       </c>
       <c r="X26" s="23" t="s">
@@ -2682,7 +2691,7 @@
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10">
-        <f>SUM(P27:V27)</f>
+        <f t="shared" si="0"/>
         <v>-33</v>
       </c>
       <c r="X27" s="23"/>
@@ -2716,14 +2725,19 @@
       <c r="O28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="10"/>
+      <c r="P28" s="10">
+        <v>-34.5</v>
+      </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
+      <c r="W28" s="10">
+        <f t="shared" si="0"/>
+        <v>-34.5</v>
+      </c>
       <c r="X28" s="23"/>
       <c r="Y28" s="8"/>
     </row>
@@ -2759,15 +2773,26 @@
       <c r="O29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="P29" s="10">
+        <v>-30.5</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>-13.8</v>
+      </c>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="T29" s="11">
+        <v>-200</v>
+      </c>
       <c r="U29" s="7"/>
       <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="23"/>
+      <c r="W29" s="10">
+        <f t="shared" si="0"/>
+        <v>-244.3</v>
+      </c>
+      <c r="X29" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="Y29" s="8"/>
     </row>
     <row r="30" spans="1:25">
@@ -2797,15 +2822,22 @@
       <c r="N30" s="7">
         <v>28</v>
       </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="O30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="10">
+        <v>-32.5</v>
+      </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="W30" s="10">
+        <f>SUM(P30:V30)</f>
+        <v>-32.5</v>
+      </c>
       <c r="X30" s="23"/>
       <c r="Y30" s="8"/>
     </row>
@@ -2836,15 +2868,24 @@
       <c r="N31" s="7">
         <v>29</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="O31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="10">
+        <v>-32</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>-13.5</v>
+      </c>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
+      <c r="W31" s="10">
+        <f>SUM(P31:V31)</f>
+        <v>-45.5</v>
+      </c>
       <c r="X31" s="23"/>
       <c r="Y31" s="8"/>
     </row>
@@ -2873,21 +2914,30 @@
         <v>-612</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L32" s="8"/>
       <c r="N32" s="7">
         <v>30</v>
       </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="10">
+        <v>-32</v>
+      </c>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="S32" s="36">
+        <v>-100</v>
+      </c>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
+      <c r="W32" s="10">
+        <f>SUM(P32:V32)</f>
+        <v>-132</v>
+      </c>
       <c r="X32" s="23"/>
       <c r="Y32" s="8"/>
     </row>
@@ -2916,7 +2966,7 @@
         <v>-155</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L33" s="24">
         <v>23532.93</v>
@@ -2924,16 +2974,27 @@
       <c r="N33" s="10">
         <v>31</v>
       </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="O33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="10">
+        <v>-32</v>
+      </c>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
+      <c r="T33" s="10">
+        <v>-89</v>
+      </c>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="23"/>
+      <c r="W33" s="10">
+        <f>SUM(P33:V33)</f>
+        <v>-121</v>
+      </c>
+      <c r="X33" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="Y33" s="24"/>
     </row>
     <row r="34" spans="1:25">
@@ -2967,7 +3028,10 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="28"/>
-      <c r="W34" s="8"/>
+      <c r="W34" s="37">
+        <f>SUM(W3:W33)</f>
+        <v>-4119</v>
+      </c>
       <c r="X34" s="22"/>
       <c r="Y34" s="30"/>
     </row>

--- a/billbook.xlsx
+++ b/billbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23835" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -54,10 +54,45 @@
     <t>证券</t>
   </si>
   <si>
+    <t>花呗利息</t>
+  </si>
+  <si>
     <t>六</t>
   </si>
   <si>
     <t>二</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>花呗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4-14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到期</t>
+    </r>
   </si>
   <si>
     <t>日</t>
@@ -191,16 +226,58 @@
   <si>
     <t>天猫精灵</t>
   </si>
+  <si>
+    <t>2019/02月</t>
+  </si>
+  <si>
+    <t>2019/03月</t>
+  </si>
+  <si>
+    <t>中信</t>
+  </si>
+  <si>
+    <t>中信借款</t>
+  </si>
+  <si>
+    <t>一期</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>网费和交通</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>春节合计</t>
+  </si>
+  <si>
+    <t>清明节预支</t>
+  </si>
+  <si>
+    <t>2019/04月</t>
+  </si>
+  <si>
+    <t>理发</t>
+  </si>
+  <si>
+    <t>旅行花销</t>
+  </si>
+  <si>
+    <t>请客</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -225,14 +302,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,15 +376,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,21 +394,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,39 +408,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -346,6 +423,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -355,14 +439,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +479,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,6 +492,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +599,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,19 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,55 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,61 +671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,17 +776,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,31 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,6 +826,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,6 +864,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,137 +893,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1066,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,7 +1081,7 @@
     <xf numFmtId="57" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1028,44 +1114,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1420,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1431,10 +1523,10 @@
     <col min="10" max="10" width="9.375"/>
     <col min="11" max="11" width="17.2583333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.375"/>
-    <col min="25" max="25" width="9.375"/>
+    <col min="26" max="27" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2">
         <v>43435</v>
       </c>
@@ -1447,24 +1539,24 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="N1" s="16">
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="O1" s="17">
         <v>43466</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="31"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
       <c r="Y1" s="38"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="Z1" s="39"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1489,62 +1581,65 @@
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="V2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="Y2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Z2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="40"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="41"/>
+      <c r="AB2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:28">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1554,41 +1649,46 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="22"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="8"/>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>1</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="8">
         <v>-30</v>
       </c>
-      <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="8">
-        <f t="shared" ref="W3:W29" si="0">SUM(P3:V3)</f>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8">
+        <f t="shared" ref="X3:X33" si="0">SUM(Q3:W3)</f>
         <v>-30</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="41">
+      <c r="Y3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="43">
         <v>23532.93</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="AB3">
+        <v>-660.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1598,38 +1698,38 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="23"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="8"/>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>2</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7">
         <v>-35.1</v>
       </c>
-      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="33">
+      <c r="S4" s="7"/>
+      <c r="T4" s="36">
         <v>-210</v>
       </c>
-      <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="10">
+      <c r="W4" s="7"/>
+      <c r="X4" s="10">
         <f t="shared" si="0"/>
         <v>-245.1</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1639,36 +1739,36 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="23"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="8"/>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>3</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7">
         <v>-35.1</v>
       </c>
-      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="10">
+      <c r="W5" s="7"/>
+      <c r="X5" s="10">
         <f t="shared" si="0"/>
         <v>-35.1</v>
       </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="8"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1678,40 +1778,40 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="8"/>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>4</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="P6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="7">
         <v>-16.2</v>
       </c>
-      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="33">
+      <c r="V6" s="7"/>
+      <c r="W6" s="36">
         <v>-622</v>
       </c>
-      <c r="W6" s="10">
+      <c r="X6" s="10">
         <f t="shared" si="0"/>
         <v>-638.2</v>
       </c>
-      <c r="X6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Y6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1721,36 +1821,36 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="8"/>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>5</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7">
         <v>-31.9</v>
       </c>
-      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="10">
+      <c r="W7" s="7"/>
+      <c r="X7" s="10">
         <f t="shared" si="0"/>
         <v>-31.9</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="8"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1760,44 +1860,44 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="8"/>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>6</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="P8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="7">
         <v>-42</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7">
         <v>-2</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="33">
+      <c r="T8" s="7"/>
+      <c r="U8" s="36">
         <v>-123.3</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7">
+      <c r="V8" s="7"/>
+      <c r="W8" s="7">
         <v>-27</v>
       </c>
-      <c r="W8" s="10">
+      <c r="X8" s="10">
         <f t="shared" si="0"/>
         <v>-194.3</v>
       </c>
-      <c r="X8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Y8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1807,36 +1907,36 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="23"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="8"/>
-      <c r="N9" s="7">
+      <c r="O9" s="7">
         <v>7</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7">
         <v>-29.5</v>
       </c>
-      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="10">
+      <c r="W9" s="7"/>
+      <c r="X9" s="10">
         <f t="shared" si="0"/>
         <v>-29.5</v>
       </c>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1846,36 +1946,36 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="8"/>
-      <c r="N10" s="7">
+      <c r="O10" s="7">
         <v>8</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7">
         <v>-30.6</v>
       </c>
-      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="10">
+      <c r="W10" s="7"/>
+      <c r="X10" s="10">
         <f t="shared" si="0"/>
         <v>-30.6</v>
       </c>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="8"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1885,42 +1985,42 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="8"/>
-      <c r="N11" s="7">
+      <c r="O11" s="7">
         <v>9</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7">
         <v>-37.5</v>
       </c>
-      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7">
+      <c r="T11" s="7"/>
+      <c r="U11" s="7">
         <v>-21</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="33">
+      <c r="V11" s="7"/>
+      <c r="W11" s="36">
         <v>-158</v>
       </c>
-      <c r="W11" s="10">
+      <c r="X11" s="10">
         <f t="shared" si="0"/>
         <v>-216.5</v>
       </c>
-      <c r="X11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="8"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Y11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <v>-34.35</v>
@@ -1939,40 +2039,40 @@
         <f t="shared" ref="J12:J33" si="1">SUM(C12:I12)</f>
         <v>-61.85</v>
       </c>
-      <c r="K12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="K12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="25">
         <v>22362.44</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>10</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="P12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7">
         <v>-30</v>
       </c>
-      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="10">
+      <c r="W12" s="7"/>
+      <c r="X12" s="10">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
-      <c r="X12" s="23"/>
       <c r="Y12" s="24"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" s="25"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <v>-36.59</v>
@@ -1989,36 +2089,36 @@
         <f t="shared" si="1"/>
         <v>-47.59</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="8"/>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>11</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="P13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="7">
         <v>-33</v>
       </c>
-      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="10">
+      <c r="W13" s="7"/>
+      <c r="X13" s="10">
         <f t="shared" si="0"/>
         <v>-33</v>
       </c>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="8"/>
-    </row>
-    <row r="14" ht="27" spans="1:25">
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" ht="27" spans="1:26">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <v>-35.67</v>
@@ -2039,42 +2139,42 @@
         <f t="shared" si="1"/>
         <v>-39.47</v>
       </c>
-      <c r="K14" s="25" t="s">
-        <v>23</v>
+      <c r="K14" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="N14" s="7">
+      <c r="O14" s="7">
         <v>12</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="P14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="7">
         <v>-21</v>
       </c>
-      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="7">
+      <c r="V14" s="7"/>
+      <c r="W14" s="7">
         <v>-80</v>
       </c>
-      <c r="W14" s="10">
+      <c r="X14" s="10">
         <f t="shared" si="0"/>
         <v>-101</v>
       </c>
-      <c r="X14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y14" s="8"/>
-    </row>
-    <row r="15" ht="27" spans="1:25">
+      <c r="Y14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" ht="27" spans="1:26">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>-34.1</v>
@@ -2089,42 +2189,42 @@
         <f t="shared" si="1"/>
         <v>-34.1</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="8"/>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>13</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="P15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="7">
         <v>-38</v>
       </c>
-      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="33">
+      <c r="T15" s="7"/>
+      <c r="U15" s="36">
         <v>-313</v>
       </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7">
+      <c r="V15" s="7"/>
+      <c r="W15" s="7">
         <v>-89</v>
       </c>
-      <c r="W15" s="10">
+      <c r="X15" s="10">
         <f t="shared" si="0"/>
         <v>-440</v>
       </c>
-      <c r="X15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" s="8"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Y15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
         <v>-20.27</v>
@@ -2141,38 +2241,38 @@
         <f t="shared" si="1"/>
         <v>-88.27</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>26</v>
+      <c r="K16" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>14</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7">
         <v>-32</v>
       </c>
-      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="10">
+      <c r="W16" s="7"/>
+      <c r="X16" s="10">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="8"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7">
         <v>-32.8</v>
@@ -2189,38 +2289,38 @@
         <f t="shared" si="1"/>
         <v>-59.74</v>
       </c>
-      <c r="K17" s="23" t="s">
-        <v>27</v>
+      <c r="K17" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="N17" s="7">
+      <c r="O17" s="7">
         <v>15</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="P17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="7">
         <v>-32</v>
       </c>
-      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="10">
+      <c r="W17" s="7"/>
+      <c r="X17" s="10">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="8"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
         <v>-48</v>
@@ -2235,38 +2335,38 @@
         <f t="shared" si="1"/>
         <v>-48</v>
       </c>
-      <c r="K18" s="26" t="s">
-        <v>28</v>
+      <c r="K18" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>16</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="7">
+      <c r="P18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="7">
         <v>-32</v>
       </c>
-      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="10">
+      <c r="W18" s="7"/>
+      <c r="X18" s="10">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="8"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10">
         <v>-38.6</v>
@@ -2285,38 +2385,38 @@
         <f t="shared" si="1"/>
         <v>-244.3</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>29</v>
+      <c r="K19" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>17</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="10">
+      <c r="P19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="10">
         <v>-32</v>
       </c>
-      <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="10">
+      <c r="V19" s="10"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="10">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="8"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="8"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="10">
         <v>-37.34</v>
@@ -2333,36 +2433,36 @@
         <f t="shared" si="1"/>
         <v>-47.34</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="8"/>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>18</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="10">
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="10">
         <v>-44</v>
       </c>
-      <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="10">
+      <c r="W20" s="10"/>
+      <c r="X20" s="10">
         <f t="shared" si="0"/>
         <v>-44</v>
       </c>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="8"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10">
         <v>-41.07</v>
@@ -2377,36 +2477,36 @@
         <f t="shared" si="1"/>
         <v>-41.07</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="24"/>
       <c r="L21" s="8"/>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>19</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="10">
+      <c r="P21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="10">
         <v>-32</v>
       </c>
-      <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10">
+      <c r="W21" s="10"/>
+      <c r="X21" s="10">
         <f t="shared" si="0"/>
         <v>-32</v>
       </c>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="8"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="10">
         <v>-37.02</v>
@@ -2425,36 +2525,36 @@
         <f t="shared" si="1"/>
         <v>-47.72</v>
       </c>
-      <c r="K22" s="23"/>
+      <c r="K22" s="24"/>
       <c r="L22" s="8"/>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>20</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" s="10">
+      <c r="P22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="10">
         <v>-40</v>
       </c>
-      <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="10">
+      <c r="W22" s="10"/>
+      <c r="X22" s="10">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="8"/>
-    </row>
-    <row r="23" ht="27" spans="1:25">
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" ht="27" spans="1:26">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="10">
         <v>-30.6</v>
@@ -2475,38 +2575,38 @@
         <f t="shared" si="1"/>
         <v>-228.6</v>
       </c>
-      <c r="K23" s="27" t="s">
-        <v>30</v>
+      <c r="K23" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="N23" s="7">
+      <c r="O23" s="7">
         <v>21</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="10">
+      <c r="P23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="10">
         <v>-35</v>
       </c>
-      <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="11"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="10">
+      <c r="W23" s="10"/>
+      <c r="X23" s="10">
         <f t="shared" si="0"/>
         <v>-35</v>
       </c>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="8"/>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="10">
         <v>-16.2</v>
@@ -2525,38 +2625,38 @@
         <f t="shared" si="1"/>
         <v>-289.2</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>31</v>
+      <c r="K24" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="L24" s="8"/>
-      <c r="N24" s="7">
+      <c r="O24" s="7">
         <v>22</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="10">
+      <c r="P24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="10">
         <v>-35</v>
       </c>
-      <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="10">
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="10">
         <f t="shared" si="0"/>
         <v>-35</v>
       </c>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="8"/>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="10">
         <v>-42.41</v>
@@ -2571,42 +2671,42 @@
         <f t="shared" si="1"/>
         <v>-42.41</v>
       </c>
-      <c r="K25" s="26" t="s">
-        <v>32</v>
+      <c r="K25" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="L25" s="8"/>
-      <c r="N25" s="7">
+      <c r="O25" s="7">
         <v>23</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P25" s="10">
+      <c r="P25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="10">
         <v>-35</v>
       </c>
-      <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-      <c r="T25" s="10">
+      <c r="T25" s="10"/>
+      <c r="U25" s="10">
         <v>-37</v>
       </c>
-      <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="10">
+      <c r="W25" s="10"/>
+      <c r="X25" s="10">
         <f t="shared" si="0"/>
         <v>-72</v>
       </c>
-      <c r="X25" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" s="8"/>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Y25" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10">
         <v>-34.6</v>
@@ -2623,40 +2723,40 @@
         <f t="shared" si="1"/>
         <v>-45.6</v>
       </c>
-      <c r="K26" s="23"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="8"/>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>24</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="10">
+      <c r="P26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="10">
         <v>-35</v>
       </c>
-      <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
-      <c r="T26" s="11">
+      <c r="T26" s="10"/>
+      <c r="U26" s="11">
         <v>-1000</v>
       </c>
-      <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="11">
+      <c r="W26" s="10"/>
+      <c r="X26" s="11">
         <f t="shared" si="0"/>
         <v>-1035</v>
       </c>
-      <c r="X26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y26" s="8"/>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Y26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="10">
         <v>-35.3</v>
@@ -2673,36 +2773,36 @@
         <f t="shared" si="1"/>
         <v>-42.8</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="8"/>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>25</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" s="10">
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="10">
         <v>-33</v>
       </c>
-      <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="10">
+      <c r="W27" s="10"/>
+      <c r="X27" s="10">
         <f t="shared" si="0"/>
         <v>-33</v>
       </c>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="8"/>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C28" s="10">
         <v>-33.7</v>
@@ -2717,36 +2817,36 @@
         <f t="shared" si="1"/>
         <v>-33.7</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="8"/>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>26</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="10">
+      <c r="P28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="10">
         <v>-34.5</v>
       </c>
-      <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="10">
+      <c r="W28" s="10"/>
+      <c r="X28" s="10">
         <f t="shared" si="0"/>
         <v>-34.5</v>
       </c>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="8"/>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29" s="10">
         <v>-33.7</v>
@@ -2765,42 +2865,42 @@
         <f t="shared" si="1"/>
         <v>-24.7</v>
       </c>
-      <c r="K29" s="23"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="8"/>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>27</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" s="10">
+      <c r="P29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="10">
         <v>-30.5</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="R29" s="10">
         <v>-13.8</v>
       </c>
-      <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="11">
+      <c r="T29" s="10"/>
+      <c r="U29" s="11">
         <v>-200</v>
       </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10">
+      <c r="V29" s="7"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10">
         <f t="shared" si="0"/>
         <v>-244.3</v>
       </c>
-      <c r="X29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y29" s="8"/>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Y29" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="10">
         <v>-30.6</v>
@@ -2817,36 +2917,36 @@
         <f t="shared" si="1"/>
         <v>-40.6</v>
       </c>
-      <c r="K30" s="23"/>
+      <c r="K30" s="24"/>
       <c r="L30" s="8"/>
-      <c r="N30" s="7">
+      <c r="O30" s="7">
         <v>28</v>
       </c>
-      <c r="O30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" s="10">
+      <c r="P30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="10">
         <v>-32.5</v>
       </c>
-      <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="10">
-        <f>SUM(P30:V30)</f>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10">
+        <f t="shared" si="0"/>
         <v>-32.5</v>
       </c>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="10">
         <v>-26</v>
@@ -2863,38 +2963,38 @@
         <f t="shared" si="1"/>
         <v>-42</v>
       </c>
-      <c r="K31" s="23"/>
+      <c r="K31" s="24"/>
       <c r="L31" s="8"/>
-      <c r="N31" s="7">
+      <c r="O31" s="7">
         <v>29</v>
       </c>
-      <c r="O31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="10">
+      <c r="P31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="10">
         <v>-32</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="R31" s="10">
         <v>-13.5</v>
       </c>
-      <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
-      <c r="W31" s="10">
-        <f>SUM(P31:V31)</f>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10">
+        <f t="shared" si="0"/>
         <v>-45.5</v>
       </c>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="8"/>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="10">
         <v>-20</v>
@@ -2913,40 +3013,40 @@
         <f t="shared" si="1"/>
         <v>-612</v>
       </c>
-      <c r="K32" s="23" t="s">
-        <v>36</v>
+      <c r="K32" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="L32" s="8"/>
-      <c r="N32" s="7">
+      <c r="O32" s="7">
         <v>30</v>
       </c>
-      <c r="O32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" s="10">
+      <c r="P32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q32" s="10">
         <v>-32</v>
       </c>
-      <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="36">
+      <c r="S32" s="10"/>
+      <c r="T32" s="11">
         <v>-100</v>
       </c>
-      <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
-      <c r="W32" s="10">
-        <f>SUM(P32:V32)</f>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10">
+        <f t="shared" si="0"/>
         <v>-132</v>
       </c>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="8"/>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" s="10">
         <v>-20</v>
@@ -2965,39 +3065,39 @@
         <f t="shared" si="1"/>
         <v>-155</v>
       </c>
-      <c r="K33" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="24">
+      <c r="K33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="25">
         <v>23532.93</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <v>31</v>
       </c>
-      <c r="O33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" s="10">
+      <c r="P33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="10">
         <v>-32</v>
       </c>
-      <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="T33" s="10">
+      <c r="T33" s="10"/>
+      <c r="U33" s="10">
         <v>-89</v>
       </c>
-      <c r="U33" s="10"/>
       <c r="V33" s="10"/>
-      <c r="W33" s="10">
-        <f>SUM(P33:V33)</f>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10">
+        <f t="shared" si="0"/>
         <v>-121</v>
       </c>
-      <c r="X33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y33" s="24"/>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Y33" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="25"/>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="8" t="s">
         <v>9</v>
       </c>
@@ -3008,40 +3108,2219 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29">
+      <c r="I34" s="29"/>
+      <c r="J34" s="30">
         <f>SUM(J12:J33)</f>
         <v>-2316.06</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="30">
+      <c r="K34" s="23"/>
+      <c r="L34" s="31">
         <v>1170.5</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="O34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="13"/>
+      <c r="P34" s="12"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="37">
-        <f>SUM(W3:W33)</f>
+      <c r="V34" s="13"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="37">
+        <f>SUM(X3:X33)</f>
         <v>-4119</v>
       </c>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="30"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="31"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="O38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="16"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="X39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="7">
+        <v>1</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-35</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8">
+        <f>SUM(C40:I40)</f>
+        <v>-35</v>
+      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="8"/>
+      <c r="O40" s="7">
+        <v>1</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>-36.7</v>
+      </c>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8">
+        <v>-200</v>
+      </c>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8">
+        <f t="shared" ref="X40:X69" si="2">SUM(Q40:W40)</f>
+        <v>-236.7</v>
+      </c>
+      <c r="Y40" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z40" s="8">
+        <v>-127000</v>
+      </c>
+      <c r="AA40">
+        <v>11065.97</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="7">
+        <v>2</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
+        <v>-36</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="10">
+        <f>SUM(C41:I41)</f>
+        <v>-36</v>
+      </c>
+      <c r="K41" s="24"/>
+      <c r="L41" s="8"/>
+      <c r="O41" s="7">
+        <v>2</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>-24.1</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7">
+        <v>-9.9</v>
+      </c>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="10">
+        <f t="shared" si="2"/>
+        <v>-34</v>
+      </c>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="8"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="7">
+        <v>3</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="8"/>
+      <c r="O42" s="7">
+        <v>3</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>-50</v>
+      </c>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14">
+        <v>-25.5</v>
+      </c>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14">
+        <f t="shared" si="2"/>
+        <v>-75.5</v>
+      </c>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="8"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="7">
+        <v>4</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="8"/>
+      <c r="O43" s="7">
+        <v>4</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>-28.6</v>
+      </c>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14">
+        <f t="shared" si="2"/>
+        <v>-28.6</v>
+      </c>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="8"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="7">
+        <v>5</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="8"/>
+      <c r="O44" s="7">
+        <v>5</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>-24.1</v>
+      </c>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14">
+        <f t="shared" si="2"/>
+        <v>-24.1</v>
+      </c>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="8"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="7">
+        <v>6</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="8"/>
+      <c r="O45" s="7">
+        <v>6</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>-26.1</v>
+      </c>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14">
+        <f t="shared" si="2"/>
+        <v>-26.1</v>
+      </c>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="8"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="7">
+        <v>7</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="8"/>
+      <c r="O46" s="7">
+        <v>7</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>-31</v>
+      </c>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14">
+        <v>-141.67</v>
+      </c>
+      <c r="X46" s="14">
+        <f t="shared" si="2"/>
+        <v>-172.67</v>
+      </c>
+      <c r="Y46" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z46" s="8"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="7">
+        <v>8</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="8"/>
+      <c r="O47" s="7">
+        <v>8</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>-53.5</v>
+      </c>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14">
+        <v>-105</v>
+      </c>
+      <c r="X47" s="14">
+        <f t="shared" si="2"/>
+        <v>-158.5</v>
+      </c>
+      <c r="Y47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z47" s="8"/>
+    </row>
+    <row r="48" ht="27" spans="1:26">
+      <c r="A48" s="7">
+        <v>9</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="8"/>
+      <c r="O48" s="7">
+        <v>9</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>-20</v>
+      </c>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14">
+        <v>-180</v>
+      </c>
+      <c r="X48" s="14">
+        <f t="shared" si="2"/>
+        <v>-200</v>
+      </c>
+      <c r="Y48" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z48" s="8"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="7">
+        <v>10</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="25"/>
+      <c r="O49" s="7">
+        <v>10</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>-40</v>
+      </c>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14">
+        <v>-47</v>
+      </c>
+      <c r="X49" s="14">
+        <f t="shared" si="2"/>
+        <v>-87</v>
+      </c>
+      <c r="Y49" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z49" s="25"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="7">
+        <v>11</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="33">
+        <v>-1465</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="8"/>
+      <c r="O50" s="7">
+        <v>11</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>-31</v>
+      </c>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="33">
+        <f t="shared" si="2"/>
+        <v>-31</v>
+      </c>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="8"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="7">
+        <v>12</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="7">
+        <v>-33.3</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="10">
+        <f t="shared" ref="J51:J67" si="3">SUM(C51:I51)</f>
+        <v>-33.3</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="L51" s="8"/>
+      <c r="O51" s="7">
+        <v>12</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>-33</v>
+      </c>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="10">
+        <f t="shared" si="2"/>
+        <v>-33</v>
+      </c>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="8"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="7">
+        <v>13</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="7">
+        <v>-29.5</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7">
+        <v>-77</v>
+      </c>
+      <c r="J52" s="10">
+        <f t="shared" si="3"/>
+        <v>-106.5</v>
+      </c>
+      <c r="K52" s="24"/>
+      <c r="L52" s="8"/>
+      <c r="O52" s="7">
+        <v>13</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>-34.9</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="10">
+        <f t="shared" si="2"/>
+        <v>-34.9</v>
+      </c>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="8"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="7">
+        <v>14</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="7">
+        <v>-29.5</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7">
+        <v>-15.8</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="10">
+        <f t="shared" si="3"/>
+        <v>-45.3</v>
+      </c>
+      <c r="K53" s="24"/>
+      <c r="L53" s="8"/>
+      <c r="O53" s="7">
+        <v>14</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>-34</v>
+      </c>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="10">
+        <f t="shared" si="2"/>
+        <v>-34</v>
+      </c>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="8"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="7">
+        <v>15</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>-27.8</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="10">
+        <f t="shared" si="3"/>
+        <v>-27.8</v>
+      </c>
+      <c r="K54" s="24"/>
+      <c r="L54" s="8"/>
+      <c r="O54" s="7">
+        <v>15</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>-33</v>
+      </c>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="10">
+        <f t="shared" si="2"/>
+        <v>-33</v>
+      </c>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="8"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="7">
+        <v>16</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="7">
+        <v>-43.7</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="10">
+        <f t="shared" si="3"/>
+        <v>-43.7</v>
+      </c>
+      <c r="K55" s="34"/>
+      <c r="L55" s="8"/>
+      <c r="O55" s="7">
+        <v>16</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>-32</v>
+      </c>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="10">
+        <f t="shared" si="2"/>
+        <v>-32</v>
+      </c>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="8"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="7">
+        <v>17</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="10">
+        <v>-62</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10">
+        <v>-22</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="10">
+        <f t="shared" si="3"/>
+        <v>-84</v>
+      </c>
+      <c r="K56" s="26"/>
+      <c r="L56" s="8"/>
+      <c r="O56" s="7">
+        <v>17</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>-33</v>
+      </c>
+      <c r="R56" s="10">
+        <v>-17</v>
+      </c>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10">
+        <v>-77</v>
+      </c>
+      <c r="V56" s="10"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="10">
+        <f t="shared" si="2"/>
+        <v>-127</v>
+      </c>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="8"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="7">
+        <v>18</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="10">
+        <v>-35.7</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10">
+        <f t="shared" si="3"/>
+        <v>-35.7</v>
+      </c>
+      <c r="K57" s="24"/>
+      <c r="L57" s="8"/>
+      <c r="O57" s="7">
+        <v>18</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>-205</v>
+      </c>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10">
+        <f t="shared" si="2"/>
+        <v>-205</v>
+      </c>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="8"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="7">
+        <v>19</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="10">
+        <v>-30.5</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10">
+        <f t="shared" si="3"/>
+        <v>-30.5</v>
+      </c>
+      <c r="K58" s="24"/>
+      <c r="L58" s="8"/>
+      <c r="O58" s="7">
+        <v>19</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>-7</v>
+      </c>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="8"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="7">
+        <v>20</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="10">
+        <v>-33</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10">
+        <f t="shared" si="3"/>
+        <v>-33</v>
+      </c>
+      <c r="K59" s="24"/>
+      <c r="L59" s="8"/>
+      <c r="O59" s="7">
+        <v>20</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>-23</v>
+      </c>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10">
+        <v>-100</v>
+      </c>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10">
+        <f t="shared" si="2"/>
+        <v>-123</v>
+      </c>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="8"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="7">
+        <v>21</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="10">
+        <v>-33</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10">
+        <f t="shared" si="3"/>
+        <v>-33</v>
+      </c>
+      <c r="K60" s="28"/>
+      <c r="L60" s="8"/>
+      <c r="O60" s="7">
+        <v>21</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>-7</v>
+      </c>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="8"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="7">
+        <v>22</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="10">
+        <v>-33</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="10">
+        <f t="shared" si="3"/>
+        <v>-33</v>
+      </c>
+      <c r="K61" s="24"/>
+      <c r="L61" s="8"/>
+      <c r="O61" s="7">
+        <v>22</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>-7</v>
+      </c>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="10">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="8"/>
+    </row>
+    <row r="62" ht="27" spans="1:26">
+      <c r="A62" s="7">
+        <v>23</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="10">
+        <v>-39</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10">
+        <v>-27</v>
+      </c>
+      <c r="J62" s="10">
+        <f t="shared" si="3"/>
+        <v>-66</v>
+      </c>
+      <c r="K62" s="34"/>
+      <c r="L62" s="8"/>
+      <c r="O62" s="7">
+        <v>23</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>-58</v>
+      </c>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="11">
+        <v>-2904</v>
+      </c>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10">
+        <f t="shared" si="2"/>
+        <v>-2962</v>
+      </c>
+      <c r="Y62" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z62" s="8"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="7">
+        <v>24</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="10">
+        <v>-47</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10">
+        <f t="shared" si="3"/>
+        <v>-47</v>
+      </c>
+      <c r="K63" s="24"/>
+      <c r="L63" s="8"/>
+      <c r="O63" s="7">
+        <v>24</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>-58.5</v>
+      </c>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10">
+        <f t="shared" si="2"/>
+        <v>-58.5</v>
+      </c>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="8"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="7">
+        <v>25</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="10">
+        <v>-31.6</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10">
+        <f t="shared" si="3"/>
+        <v>-31.6</v>
+      </c>
+      <c r="K64" s="24"/>
+      <c r="L64" s="8"/>
+      <c r="O64" s="7">
+        <v>25</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>-3</v>
+      </c>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="8"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="7">
+        <v>26</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="10">
+        <v>-29.5</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10">
+        <f t="shared" si="3"/>
+        <v>-29.5</v>
+      </c>
+      <c r="K65" s="24"/>
+      <c r="L65" s="8"/>
+      <c r="O65" s="7">
+        <v>26</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>-7</v>
+      </c>
+      <c r="R65" s="10">
+        <v>-8</v>
+      </c>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10">
+        <v>-12</v>
+      </c>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10">
+        <f t="shared" si="2"/>
+        <v>-27</v>
+      </c>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="8"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="7">
+        <v>27</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="10">
+        <v>-33</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10">
+        <v>-100</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10">
+        <f t="shared" si="3"/>
+        <v>-133</v>
+      </c>
+      <c r="K66" s="24"/>
+      <c r="L66" s="8"/>
+      <c r="O66" s="7">
+        <v>27</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q66" s="10">
+        <v>-207</v>
+      </c>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10">
+        <f t="shared" si="2"/>
+        <v>-207</v>
+      </c>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="8"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="7">
+        <v>28</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="10">
+        <v>-33</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10">
+        <v>-100</v>
+      </c>
+      <c r="J67" s="10">
+        <f t="shared" si="3"/>
+        <v>-133</v>
+      </c>
+      <c r="K67" s="24"/>
+      <c r="L67" s="8"/>
+      <c r="O67" s="7">
+        <v>28</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q67" s="10">
+        <v>-7</v>
+      </c>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10">
+        <v>-113</v>
+      </c>
+      <c r="X67" s="10">
+        <f t="shared" si="2"/>
+        <v>-120</v>
+      </c>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="8"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="7">
+        <v>29</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="8"/>
+      <c r="O68" s="7">
+        <v>29</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>-6.5</v>
+      </c>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.5</v>
+      </c>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="8"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="7">
+        <v>30</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="8"/>
+      <c r="O69" s="7">
+        <v>30</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>-22</v>
+      </c>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="10">
+        <f t="shared" si="2"/>
+        <v>-22</v>
+      </c>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="8"/>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="10">
+        <v>31</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="25"/>
+      <c r="O70" s="10">
+        <v>31</v>
+      </c>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="25"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="30">
+        <f>SUM(J49:J70)</f>
+        <v>-2410.9</v>
+      </c>
+      <c r="K71" s="23"/>
+      <c r="L71" s="31"/>
+      <c r="O71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="30">
+        <f>SUM(X49:X70)</f>
+        <v>-4166.9</v>
+      </c>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="31"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="16"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="7">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="8">
+        <v>-58</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8">
+        <v>-13</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8">
+        <v>-99</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8">
+        <v>-68</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="7">
+        <v>2</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="7">
+        <v>-15</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="7">
+        <v>3</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="14">
+        <v>-7</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="7">
+        <v>4</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="7">
+        <v>5</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="14">
+        <v>-3</v>
+      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="7">
+        <v>6</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="33">
+        <v>-955</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L81" s="8"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="7">
+        <v>7</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="7">
+        <v>8</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="14">
+        <v>-15</v>
+      </c>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="7">
+        <v>9</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="14">
+        <v>-7</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="7">
+        <v>10</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="14">
+        <v>-18</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="25"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="7">
+        <v>11</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="7">
+        <v>-7</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14">
+        <v>-9</v>
+      </c>
+      <c r="J86" s="33"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="7">
+        <v>12</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="7">
+        <v>-7</v>
+      </c>
+      <c r="D87" s="7">
+        <v>-23.4</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="7">
+        <v>13</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="36">
+        <v>-441</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="7">
+        <v>14</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="7">
+        <v>-72</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="7">
+        <v>15</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="7">
+        <v>-28</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="7">
+        <v>16</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>-107</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="7">
+        <v>17</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="7">
+        <v>18</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="7">
+        <v>19</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="7">
+        <v>20</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="7">
+        <v>21</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="7">
+        <v>22</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="7">
+        <v>23</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="7">
+        <v>24</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="7">
+        <v>25</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="7">
+        <v>26</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="7">
+        <v>27</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="7">
+        <v>28</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="8"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="7">
+        <v>29</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="7">
+        <v>30</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="8"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="10">
+        <v>31</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="25"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="30">
+        <f>SUM(J85:J106)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="23"/>
+      <c r="L107" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="B34:I34"/>
-    <mergeCell ref="O34:V34"/>
+    <mergeCell ref="P34:W34"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="O38:Z38"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="P71:W71"/>
+    <mergeCell ref="A74:L74"/>
+    <mergeCell ref="B107:I107"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
